--- a/TP1/Dados/Excel_Anon_Output/pseudonymized_data.xlsx
+++ b/TP1/Dados/Excel_Anon_Output/pseudonymized_data.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,6 +87,11 @@
           <t>country</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -104,12 +109,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Business Systems Development Analyst</t>
+          <t>Community Outreach Specialist</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>cI3}+VgMqvKDF</t>
         </is>
       </c>
     </row>
@@ -129,12 +139,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Analog Circuit Design manager</t>
+          <t>Nurse Practicioner</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>vF5\T}BFp/(*&gt;a</t>
         </is>
       </c>
     </row>
@@ -154,12 +169,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Structural Analysis Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>rH4`zd7~Q</t>
         </is>
       </c>
     </row>
@@ -179,12 +199,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Human Resources Assistant IV</t>
+          <t>Environmental Specialist</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>rH0}Qf!fFq.%?Wi.</t>
         </is>
       </c>
     </row>
@@ -204,12 +229,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Assistant Manager</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>yM6*W6,UJ</t>
         </is>
       </c>
     </row>
@@ -229,12 +259,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Statistician IV</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>iC3=ONj0M</t>
         </is>
       </c>
     </row>
@@ -254,12 +289,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Account Coordinator</t>
+          <t>Chief Design Engineer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>qQ5*Y\SS"&gt;UjYa9</t>
         </is>
       </c>
     </row>
@@ -279,12 +319,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>qT5%S.ktZY$O</t>
         </is>
       </c>
     </row>
@@ -304,12 +349,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Research Associate</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>rX2`RU&lt;/</t>
         </is>
       </c>
     </row>
@@ -329,12 +379,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quality Engineer</t>
+          <t>Technical Writer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>mK9&gt;SS`JC}@of</t>
         </is>
       </c>
     </row>
@@ -354,12 +409,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Information Systems Manager</t>
+          <t>Community Outreach Specialist</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>qV2&amp;6R#*@AuX</t>
         </is>
       </c>
     </row>
@@ -379,12 +439,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Information Systems Manager</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>hU0)2&amp;J.d%!&gt;,qH</t>
         </is>
       </c>
     </row>
@@ -404,12 +469,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Administrative Officer</t>
+          <t>Community Outreach Specialist</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>gU7#?I"|,N#w&lt;/</t>
         </is>
       </c>
     </row>
@@ -429,12 +499,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Database Administrator I</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>cX7`*z\3X&gt;</t>
         </is>
       </c>
     </row>
@@ -454,12 +529,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Engineer I</t>
+          <t>Senior Financial Analyst</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>tC5{q{oHl*\i</t>
         </is>
       </c>
     </row>
@@ -479,12 +559,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dental Hygienist</t>
+          <t>Media Manager I</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>yE0(N\X=TGLaq</t>
         </is>
       </c>
     </row>
@@ -504,12 +589,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>qX4&amp;l_M`'&amp;v}`WS}</t>
         </is>
       </c>
     </row>
@@ -529,12 +619,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Junior Executive</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>tH4"'"#hQ5Gu#7</t>
         </is>
       </c>
     </row>
@@ -554,12 +649,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Human Resources Manager</t>
+          <t>Dental Hygienist</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>oK5+M0sHpm</t>
         </is>
       </c>
     </row>
@@ -579,12 +679,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Account Coordinator</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>eR1&lt;/wk0U&amp;%*R</t>
         </is>
       </c>
     </row>
@@ -604,12 +709,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Computer Systems Analyst I</t>
+          <t>Programmer IV</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>vL9'|7Bb'i'P</t>
         </is>
       </c>
     </row>
@@ -629,12 +739,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Administrative Assistant I</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>wZ1&lt;cmg$RLht\</t>
         </is>
       </c>
     </row>
@@ -654,12 +769,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Account Representative III</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Democratic Republic of the Congo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yX5/j22|?&amp;+u</t>
         </is>
       </c>
     </row>
@@ -679,12 +799,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Account Representative I</t>
+          <t>Cost Accountant</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>dI3?#"zrMK</t>
         </is>
       </c>
     </row>
@@ -704,12 +829,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nurse Practicioner</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>bL0!hWW@</t>
         </is>
       </c>
     </row>
@@ -729,12 +859,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Staff Scientist</t>
+          <t>Pharmacist</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>rO5`fq`@</t>
         </is>
       </c>
     </row>
@@ -754,12 +889,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VP Quality Control</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>pN4}*aBU9O#fn</t>
         </is>
       </c>
     </row>
@@ -779,12 +919,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Office Assistant IV</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>uN0~3yp3&gt;</t>
         </is>
       </c>
     </row>
@@ -804,12 +949,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Database Administrator II</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>lZ8)6Bh,D&lt;&lt;9</t>
         </is>
       </c>
     </row>
@@ -829,12 +979,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nuclear Power Engineer</t>
+          <t>Administrative Assistant III</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>oK2/V@A*QaH</t>
         </is>
       </c>
     </row>
@@ -854,12 +1009,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>uQ6~xIUqY</t>
         </is>
       </c>
     </row>
@@ -879,12 +1039,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Web Developer II</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>fD6"&amp;cx8`0</t>
         </is>
       </c>
     </row>
@@ -904,12 +1069,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Design Engineer</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>bV9#_'Pb6mpA3=</t>
         </is>
       </c>
     </row>
@@ -929,12 +1099,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Engineer II</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>hZ1#~\nSjvQNGdQ`</t>
         </is>
       </c>
     </row>
@@ -954,12 +1129,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Recruiting Manager</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>pA8&gt;U?a.V=nA</t>
         </is>
       </c>
     </row>
@@ -979,12 +1159,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>qG2&gt;AHWU,Yrr#=</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1189,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>Pharmacist</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>zL5$"WuI</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1219,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Media Manager II</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>jN6*oU)?</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1249,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Statistician III</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>eD2"hrck9</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1279,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Media Manager I</t>
+          <t>Research Assistant I</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>tT9!EiVF,,9%*Hm</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1309,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Business Systems Development Analyst</t>
+          <t>Statistician I</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>qP1&gt;@i/Jh</t>
         </is>
       </c>
     </row>
@@ -1129,12 +1339,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VP Sales</t>
+          <t>Assistant Professor</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>mI0(zws|L</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1374,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>wV6"Um0EJB6&amp;&gt;Yt@</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1399,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Account Representative IV</t>
+          <t>Software Consultant</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>tF1?+,'.J7</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1429,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Librarian</t>
+          <t>Senior Cost Accountant</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>fA6&amp;n+/Z5S</t>
         </is>
       </c>
     </row>
@@ -1229,12 +1459,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Senior Developer</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>sA6)s_pK</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1489,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Web Developer I</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>lF8&gt;!jQCj{J&lt;5</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1519,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Office Assistant IV</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>dD1~&amp;e$N</t>
         </is>
       </c>
     </row>
@@ -1304,12 +1549,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Structural Engineer</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>mM2.95a)PHG/S</t>
         </is>
       </c>
     </row>
@@ -1329,12 +1579,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Payment Adjustment Coordinator</t>
+          <t>Nurse Practicioner</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>qF6.%`nglGthaQX</t>
         </is>
       </c>
     </row>
@@ -1354,12 +1609,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Software Consultant</t>
+          <t>Mechanical Systems Engineer</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>qH4+311H.E0|\GJ,</t>
         </is>
       </c>
     </row>
@@ -1379,12 +1639,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Nuclear Power Engineer</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>nK2~YPB4?Zo9</t>
         </is>
       </c>
     </row>
@@ -1404,12 +1669,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Data Coordinator</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>sD9`Sm@\G}</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1699,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Web Developer III</t>
+          <t>Recruiter</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>wS8#iSx871RH</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1729,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Programmer II</t>
+          <t>VP Accounting</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pR5|Gf$EHW@W</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1759,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Biostatistician II</t>
+          <t>Chemical Engineer</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>xN3#uM'F6t</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1789,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>Registered Nurse</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>wK1}cK4&lt;bJ9Jo</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1819,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Environmental Specialist</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>wH6{2s1NMd</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1849,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Staff Accountant IV</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>zL3`{T*?`ZM'</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1879,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Engineer III</t>
+          <t>Database Administrator III</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>bN1&lt;O648y,E?_</t>
         </is>
       </c>
     </row>
@@ -1604,12 +1909,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Software Test Engineer III</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>xW4$aD8KZ{P</t>
         </is>
       </c>
     </row>
@@ -1629,12 +1939,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Programmer I</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>iW5=QaEf</t>
         </is>
       </c>
     </row>
@@ -1654,12 +1969,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>VP Marketing</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>tX7(=l=xC6_yXZ!H</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1999,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Physical Therapy Assistant</t>
+          <t>Geological Engineer</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>tA5{lNoT}aw</t>
         </is>
       </c>
     </row>
@@ -1704,12 +2029,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Media Manager IV</t>
+          <t>Staff Accountant IV</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>gD2&lt;TNS2!{</t>
         </is>
       </c>
     </row>
@@ -1729,12 +2059,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Human Resources Manager</t>
+          <t>Research Assistant IV</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>vZ3$78Gm@</t>
         </is>
       </c>
     </row>
@@ -1754,12 +2089,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Database Administrator III</t>
+          <t>Programmer Analyst II</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>qK3.|vG}9t(t6</t>
         </is>
       </c>
     </row>
@@ -1779,12 +2119,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Librarian</t>
+          <t>Dental Hygienist</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>wI5+bwuCY7TMc9gC</t>
         </is>
       </c>
     </row>
@@ -1804,12 +2149,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Legal Assistant</t>
+          <t>Accounting Assistant I</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>iF2=(d*J\'C10#</t>
         </is>
       </c>
     </row>
@@ -1829,12 +2179,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Structural Engineer</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>tY4#ra*!RIL%rj*</t>
         </is>
       </c>
     </row>
@@ -1854,12 +2209,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Chemical Engineer</t>
+          <t>Senior Developer</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>fY2)&lt;~ZK!pEh3`W</t>
         </is>
       </c>
     </row>
@@ -1879,12 +2239,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Environmental Tech</t>
+          <t>Staff Accountant II</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>qF4=G0iMFglN</t>
         </is>
       </c>
     </row>
@@ -1904,12 +2269,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mechanical Systems Engineer</t>
+          <t>Desktop Support Technician</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>dK8@n.VF</t>
         </is>
       </c>
     </row>
@@ -1929,12 +2299,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Business Systems Development Analyst</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>yQ3}~Pj*QZaIBe</t>
         </is>
       </c>
     </row>
@@ -1954,12 +2329,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Human Resources Assistant II</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>uN5|"p?qQ.'DU(o</t>
         </is>
       </c>
     </row>
@@ -1979,12 +2359,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quality Engineer</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>zE0)CevQ_b/?!2</t>
         </is>
       </c>
     </row>
@@ -2004,12 +2389,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>oS4*s`)XO</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2419,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VP Sales</t>
+          <t>Marketing Assistant</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>Egypt</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>dM6=L=QF=G}c3GH</t>
         </is>
       </c>
     </row>
@@ -2054,12 +2449,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>Software Engineer II</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>mJ3=qd}g%mjy</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2479,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Accounting Assistant III</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>qF6$xPk)opzuU</t>
         </is>
       </c>
     </row>
@@ -2104,12 +2509,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Senior Developer</t>
+          <t>Occupational Therapist</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>uB0,K@{{</t>
         </is>
       </c>
     </row>
@@ -2129,12 +2539,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Account Coordinator</t>
+          <t>Account Representative I</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>fQ7"/|I#MKM</t>
         </is>
       </c>
     </row>
@@ -2154,12 +2569,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Senior Editor</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>jC1&gt;mT}58kM@</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2599,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Human Resources Manager</t>
+          <t>Programmer IV</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>oH6`JgSW82aS~sD</t>
         </is>
       </c>
     </row>
@@ -2204,12 +2629,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Assistant Manager</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>yA6%H,S@3sNzLP9V</t>
         </is>
       </c>
     </row>
@@ -2229,12 +2659,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Desktop Support Technician</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>nU4|~6Mq4</t>
         </is>
       </c>
     </row>
@@ -2254,12 +2689,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Web Designer II</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>tS4}d%t'&gt;ZAA</t>
         </is>
       </c>
     </row>
@@ -2279,12 +2719,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Community Outreach Specialist</t>
+          <t>Paralegal</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sX5{|c+h</t>
         </is>
       </c>
     </row>
@@ -2304,12 +2749,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Technical Writer</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>eB0+S@=}wi</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2779,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Nuclear Power Engineer</t>
+          <t>Systems Administrator III</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sW8,IiR+slD1jwP</t>
         </is>
       </c>
     </row>
@@ -2354,12 +2809,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Help Desk Technician</t>
+          <t>GIS Technical Architect</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>dY3,&lt;_,9wO('</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2839,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Help Desk Operator</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>sW6.HnkUBr\</t>
         </is>
       </c>
     </row>
@@ -2404,12 +2869,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Pharmacist</t>
+          <t>Speech Pathologist</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>uC4,+}Ror</t>
         </is>
       </c>
     </row>
@@ -2429,12 +2899,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Chemical Engineer</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>bH2,YZpvN_</t>
         </is>
       </c>
     </row>
@@ -2454,12 +2929,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Nuclear Power Engineer</t>
+          <t>Human Resources Manager</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>cZ0.j&lt;j5)</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2959,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Assistant Manager</t>
+          <t>Administrative Assistant III</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>mM0"|n6b</t>
         </is>
       </c>
     </row>
@@ -2504,12 +2989,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Registered Nurse</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>dQ5"Q$jT%(I5</t>
         </is>
       </c>
     </row>
@@ -2529,12 +3019,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Senior Quality Engineer</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>uO2\adm&lt;U</t>
         </is>
       </c>
     </row>
@@ -2554,12 +3049,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Payment Adjustment Coordinator</t>
+          <t>Health Coach III</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>uC6(O%eyLe!MW9</t>
         </is>
       </c>
     </row>
@@ -2579,12 +3079,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Senior Quality Engineer</t>
+          <t>VP Sales</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>zL4@Q&gt;q,UVH&amp;S8gg</t>
         </is>
       </c>
     </row>
@@ -2604,12 +3109,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Statistician III</t>
+          <t>VP Marketing</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>oR6"y@%#D{y{dF@W</t>
         </is>
       </c>
     </row>
@@ -2629,12 +3139,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Software Test Engineer II</t>
+          <t>GIS Technical Architect</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>vR2@&amp;{}&amp;E"~+</t>
         </is>
       </c>
     </row>
@@ -2654,12 +3169,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Systems Administrator IV</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>jA1.Yd,3tgh#</t>
         </is>
       </c>
     </row>
@@ -2679,12 +3199,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VP Accounting</t>
+          <t>GIS Technical Architect</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>oT1@a&amp;U?"!X</t>
         </is>
       </c>
     </row>
@@ -2704,12 +3229,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Statistician I</t>
+          <t>Computer Systems Analyst I</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pM1%$6z"xLOZ=8J</t>
         </is>
       </c>
     </row>
@@ -2729,12 +3259,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VP Product Management</t>
+          <t>Information Systems Manager</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>rY4~t(xV</t>
         </is>
       </c>
     </row>
@@ -2754,12 +3289,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Quality Control Specialist</t>
+          <t>Administrative Assistant I</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>lE0$JsboFqB,=5</t>
         </is>
       </c>
     </row>
@@ -2779,12 +3319,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Biostatistician II</t>
+          <t>Senior Editor</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pL6,h2*%IC2_(Y1~</t>
         </is>
       </c>
     </row>
@@ -2804,12 +3349,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Account Coordinator</t>
+          <t>Junior Executive</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>uA8@8&amp;Q?n@Uew</t>
         </is>
       </c>
     </row>
@@ -2829,12 +3379,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Cost Accountant</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>tO0"m8}&lt;!Rk</t>
         </is>
       </c>
     </row>
@@ -2854,12 +3409,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Structural Engineer</t>
+          <t>Nuclear Power Engineer</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>xI5=QBs}p2q2</t>
         </is>
       </c>
     </row>
@@ -2879,12 +3439,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Quality Control Specialist</t>
+          <t>Tax Accountant</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>rL3'|ei$</t>
         </is>
       </c>
     </row>
@@ -2904,12 +3469,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Quality Control Specialist</t>
+          <t>Internal Auditor</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>cS9=7),T3NAp</t>
         </is>
       </c>
     </row>
@@ -2929,12 +3499,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>VP Product Management</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>pL5.!'/&amp;'}</t>
         </is>
       </c>
     </row>
@@ -2954,12 +3529,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>kL0'.HBpKlU_HCU</t>
         </is>
       </c>
     </row>
@@ -2979,12 +3559,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Human Resources Manager</t>
+          <t>Tax Accountant</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>dD8?bh~n$_~&amp;</t>
         </is>
       </c>
     </row>
@@ -3004,12 +3589,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>VP Product Management</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>tU8+72ntn)</t>
         </is>
       </c>
     </row>
@@ -3029,12 +3619,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Automation Specialist III</t>
+          <t>Nurse Practicioner</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>lR4}/&lt;K\Dwwq@"</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3649,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Desktop Support Technician</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>rQ8&gt;3jkz!</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3679,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Developer III</t>
+          <t>Structural Analysis Engineer</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>lM9@vADV"Y~D!2A</t>
         </is>
       </c>
     </row>
@@ -3104,12 +3709,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Administrative Officer</t>
+          <t>Sales Associate</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>dE6~\agF(j4u?k)c</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3739,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Media Manager IV</t>
+          <t>Software Engineer IV</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>fP9{6sXy/zoC</t>
         </is>
       </c>
     </row>
@@ -3154,12 +3769,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Programmer Analyst II</t>
+          <t>Statistician I</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>bC2*&amp;6#`tHC{+</t>
         </is>
       </c>
     </row>
@@ -3179,12 +3799,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>rU6*&gt;FD|!R1gO</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3829,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Pharmacist</t>
+          <t>Quality Control Specialist</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>lD1~q*Yqa5Jpm</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3859,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Software Engineer II</t>
+          <t>VP Quality Control</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>mV1{`yMJ.9</t>
         </is>
       </c>
     </row>
@@ -3254,12 +3889,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Community Outreach Specialist</t>
+          <t>Junior Executive</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>hP8"$LQbt&amp;em</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3919,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Help Desk Operator</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>eE0%p(cO8r)b</t>
         </is>
       </c>
     </row>
@@ -3304,12 +3949,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Administrative Assistant I</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>uN9.WPW7#6A</t>
         </is>
       </c>
     </row>
@@ -3329,12 +3979,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Office Assistant I</t>
+          <t>Research Nurse</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>zB3/w|8zgftsP</t>
         </is>
       </c>
     </row>
@@ -3354,12 +4009,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Help Desk Technician</t>
+          <t>Human Resources Manager</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>tX0%g`{uIU2.</t>
         </is>
       </c>
     </row>
@@ -3379,12 +4039,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quality Control Specialist</t>
+          <t>Occupational Therapist</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>oS8#@5@VJ</t>
         </is>
       </c>
     </row>
@@ -3404,12 +4069,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Sales Associate</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>eO2&amp;+nb&gt;wi'</t>
         </is>
       </c>
     </row>
@@ -3429,12 +4099,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Chemical Engineer</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>zS1#bMUVkpY</t>
         </is>
       </c>
     </row>
@@ -3454,12 +4129,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Programmer II</t>
+          <t>Community Outreach Specialist</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>tY1&gt;3YIb80S3</t>
         </is>
       </c>
     </row>
@@ -3479,12 +4159,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>VP Accounting</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>jP5*bWnJF.@dY</t>
         </is>
       </c>
     </row>
@@ -3504,12 +4189,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Technical Writer</t>
+          <t>Design Engineer</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>jD4#1M_c((\pKd"5</t>
         </is>
       </c>
     </row>
@@ -3529,12 +4219,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Legal Assistant</t>
+          <t>Sales Associate</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>fH8)u6vp|jC'4</t>
         </is>
       </c>
     </row>
@@ -3554,12 +4249,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Biostatistician II</t>
+          <t>Web Designer I</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>xT4&lt;PdaSm</t>
         </is>
       </c>
     </row>
@@ -3579,12 +4279,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>Dental Hygienist</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>cJ3_*('6(n</t>
         </is>
       </c>
     </row>
@@ -3604,12 +4309,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Accounting Assistant II</t>
+          <t>Software Engineer III</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>gW2\&lt;Bop.\gSOM}t</t>
         </is>
       </c>
     </row>
@@ -3629,12 +4339,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Help Desk Operator</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>rG0@70RZ)y</t>
         </is>
       </c>
     </row>
@@ -3654,12 +4369,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Associate Professor</t>
+          <t>Accountant I</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>gN1_&amp;6y5a9pHy&gt;'d</t>
         </is>
       </c>
     </row>
@@ -3679,12 +4399,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Mechanical Systems Engineer</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>Russia</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>oK1'&amp;`S{Q#?.</t>
         </is>
       </c>
     </row>
@@ -3704,12 +4429,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Statistician IV</t>
+          <t>Senior Cost Accountant</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>nQ1=riWUHjZ/)#</t>
         </is>
       </c>
     </row>
@@ -3729,12 +4459,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Environmental Specialist</t>
+          <t>Recruiting Manager</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>oH3&gt;fb)O</t>
         </is>
       </c>
     </row>
@@ -3754,12 +4489,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Analyst Programmer</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>kE5&amp;AP&amp;mY'</t>
         </is>
       </c>
     </row>
@@ -3779,12 +4519,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Software Consultant</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>tO4&amp;@Br"</t>
         </is>
       </c>
     </row>
@@ -3804,12 +4549,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Account Representative I</t>
+          <t>Budget/Accounting Analyst I</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>hS3@ypIz</t>
         </is>
       </c>
     </row>
@@ -3829,12 +4579,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Automation Specialist III</t>
+          <t>Administrative Assistant IV</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>vJ4*fY\\?Ce\</t>
         </is>
       </c>
     </row>
@@ -3854,12 +4609,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>GIS Technical Architect</t>
+          <t>Assistant Media Planner</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>cU5)!W3H</t>
         </is>
       </c>
     </row>
@@ -3879,12 +4639,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>pC4\=K=%"ZA.</t>
         </is>
       </c>
     </row>
@@ -3904,12 +4669,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Web Developer II</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>nO8~j7.l&amp;F0</t>
         </is>
       </c>
     </row>
@@ -3929,12 +4699,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Analog Circuit Design manager</t>
+          <t>Senior Cost Accountant</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>rP9}/`4ysH4rAp</t>
         </is>
       </c>
     </row>
@@ -3954,12 +4729,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Automation Specialist III</t>
+          <t>VP Quality Control</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>hB1!7psA`'</t>
         </is>
       </c>
     </row>
@@ -3979,12 +4759,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>qW9{JAV?b</t>
         </is>
       </c>
     </row>
@@ -4004,12 +4789,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Assistant Manager</t>
+          <t>Librarian</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>oJ8'?QcZ1</t>
         </is>
       </c>
     </row>
@@ -4029,12 +4819,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Senior Sales Associate</t>
+          <t>Registered Nurse</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>mB4#j6"e90d`</t>
         </is>
       </c>
     </row>
@@ -4054,12 +4849,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Structural Analysis Engineer</t>
+          <t>Administrative Officer</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>cC4&lt;83H%GW1qzgu</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4879,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Software Engineer I</t>
+          <t>Staff Accountant I</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>eT9\|IX/2cDBfQQ8</t>
         </is>
       </c>
     </row>
@@ -4104,12 +4909,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Web Designer I</t>
+          <t>Accountant II</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>qS6`.G`Ig\2&gt;`c7</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4939,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>lB9`JSr\cRFz1'N</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4969,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Engineer IV</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>sW3$KPQ$l%Qd*W\</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4999,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Director of Sales</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>kX4/a)v6t3iB</t>
         </is>
       </c>
     </row>
@@ -4204,12 +5029,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Research Associate</t>
+          <t>Systems Administrator III</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>hU0|Yk*,62Iv+rN</t>
         </is>
       </c>
     </row>
@@ -4229,12 +5059,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Food Chemist</t>
+          <t>Structural Engineer</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>cB3?9VUby*#F</t>
         </is>
       </c>
     </row>
@@ -4254,12 +5089,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Occupational Therapist</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>hH8`uW(~</t>
         </is>
       </c>
     </row>
@@ -4279,12 +5119,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Nurse Practicioner</t>
+          <t>Developer I</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>jH7\|v{JV6T5</t>
         </is>
       </c>
     </row>
@@ -4304,12 +5149,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Executive Secretary</t>
+          <t>Chemical Engineer</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>eG1&amp;|{D`z~8"Xh%=</t>
         </is>
       </c>
     </row>
@@ -4329,12 +5179,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Nuclear Power Engineer</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>kT7!Z.#!@%</t>
         </is>
       </c>
     </row>
@@ -4354,12 +5209,17 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Safety Technician I</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>jG5=@.j{s</t>
         </is>
       </c>
     </row>
@@ -4379,12 +5239,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Web Developer II</t>
+          <t>Account Coordinator</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>dW5\Gv"DF~Zm'h</t>
         </is>
       </c>
     </row>
@@ -4404,12 +5269,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Accountant IV</t>
+          <t>Quality Control Specialist</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>aU1&amp;c`G6)?SAh*N</t>
         </is>
       </c>
     </row>
@@ -4429,12 +5299,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Media Manager III</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>eD4}3.XeTT+</t>
         </is>
       </c>
     </row>
@@ -4454,12 +5329,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Cost Accountant</t>
+          <t>Web Designer III</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>vP0@C!kp</t>
         </is>
       </c>
     </row>
@@ -4479,12 +5359,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Account Representative II</t>
+          <t>Tax Accountant</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>lC4#"nT+FWYY</t>
         </is>
       </c>
     </row>
@@ -4504,12 +5389,17 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Dental Hygienist</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>iC1?IYqMYcp</t>
         </is>
       </c>
     </row>
@@ -4529,12 +5419,17 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>qX4!h_xqK</t>
         </is>
       </c>
     </row>
@@ -4554,12 +5449,17 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Software Consultant</t>
+          <t>Senior Developer</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>tP1&amp;q.(%8+}'o</t>
         </is>
       </c>
     </row>
@@ -4579,12 +5479,17 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Legal Assistant</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>pE2$N?a)ZnlM</t>
         </is>
       </c>
     </row>
@@ -4604,12 +5509,17 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Internal Auditor</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Macedonia</t>
+          <t>East Timor</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>nL4\Bs~XI</t>
         </is>
       </c>
     </row>
@@ -4629,12 +5539,17 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Occupational Therapist</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>yV3#Wvh/s%5$h</t>
         </is>
       </c>
     </row>
@@ -4654,12 +5569,17 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Community Outreach Specialist</t>
+          <t>Staff Scientist</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>kX7.AfK)PzyLdvX`</t>
         </is>
       </c>
     </row>
@@ -4679,12 +5599,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Nuclear Power Engineer</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>kU8,XE9&gt;7Ga{1~@o</t>
         </is>
       </c>
     </row>
@@ -4704,12 +5629,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>VP Sales</t>
+          <t>Cost Accountant</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>lE1|G*%2HGb</t>
         </is>
       </c>
     </row>
@@ -4729,12 +5659,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>vP1&lt;d8Z"zk=h</t>
         </is>
       </c>
     </row>
@@ -4754,12 +5689,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Mechanical Systems Engineer</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>sD5!qkLL}AZX</t>
         </is>
       </c>
     </row>
@@ -4779,12 +5719,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Speech Pathologist</t>
+          <t>Mechanical Systems Engineer</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>xR0)?E"*9b1</t>
         </is>
       </c>
     </row>
@@ -4804,12 +5749,17 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Chief Design Engineer</t>
+          <t>Tax Accountant</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>fG1}vtFpF5</t>
         </is>
       </c>
     </row>
@@ -4829,12 +5779,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Tax Accountant</t>
+          <t>Staff Scientist</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>yH6"\Fo37w&amp;rBAjP</t>
         </is>
       </c>
     </row>
@@ -4854,12 +5809,17 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
+          <t>Help Desk Operator</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>wY5#HF,6B{+\</t>
         </is>
       </c>
     </row>
@@ -4879,12 +5839,17 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Research Associate</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>cH5+{!5ho,9</t>
         </is>
       </c>
     </row>
@@ -4904,12 +5869,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>gU8~WM3&lt;</t>
         </is>
       </c>
     </row>
@@ -4929,12 +5899,17 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Librarian</t>
+          <t>VP Product Management</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>kH3!ple2X=</t>
         </is>
       </c>
     </row>
@@ -4954,12 +5929,17 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Speech Pathologist</t>
+          <t>Budget/Accounting Analyst II</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>bA0@w.g"2</t>
         </is>
       </c>
     </row>
@@ -4979,12 +5959,17 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>Help Desk Technician</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>cH3|Ge3eQ&gt;</t>
         </is>
       </c>
     </row>
@@ -5004,12 +5989,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Human Resources Assistant IV</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>hL3{yvMqaI&lt;PG#6</t>
         </is>
       </c>
     </row>
@@ -5029,12 +6019,17 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Assistant Manager</t>
+          <t>Administrative Officer</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>nE9,S2(3/@</t>
         </is>
       </c>
     </row>
@@ -5054,12 +6049,17 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Staff Accountant IV</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Eritrea</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>hA5*zX)UG+M</t>
         </is>
       </c>
     </row>
@@ -5079,12 +6079,17 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Analyst Programmer</t>
+          <t>Actuary</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>pZ9,19eBoz+`</t>
         </is>
       </c>
     </row>
@@ -5104,12 +6109,17 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Systems Administrator I</t>
+          <t>VP Quality Control</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>pB9("VMx4r\</t>
         </is>
       </c>
     </row>
@@ -5129,12 +6139,17 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Nurse Practicioner</t>
+          <t>Occupational Therapist</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Cook Islands</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>xA3?wUn&amp;Pj,qAp`</t>
         </is>
       </c>
     </row>
@@ -5154,12 +6169,17 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>mU4_H=C&gt;wC</t>
         </is>
       </c>
     </row>
@@ -5179,12 +6199,17 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Marketing Assistant</t>
+          <t>Internal Auditor</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Benin</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>zG4_fS3=</t>
         </is>
       </c>
     </row>
@@ -5204,12 +6229,17 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Payment Adjustment Coordinator</t>
+          <t>Quality Control Specialist</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>fI2{AXr#Xn</t>
         </is>
       </c>
     </row>
@@ -5229,12 +6259,17 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Staff Scientist</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>xB0\qq,P&gt;%b</t>
         </is>
       </c>
     </row>
@@ -5254,12 +6289,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>iU2%EUKCsq</t>
         </is>
       </c>
     </row>
@@ -5279,12 +6319,17 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Structural Analysis Engineer</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>oJ3_,8\xcz_nwHC4</t>
         </is>
       </c>
     </row>
@@ -5304,12 +6349,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Web Developer IV</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>mN5}8$,b~ZfMy</t>
         </is>
       </c>
     </row>
@@ -5329,12 +6379,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Registered Nurse</t>
+          <t>Payment Adjustment Coordinator</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Democratic Republic of the Congo</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>zI9#78'DKdn~B0n</t>
         </is>
       </c>
     </row>
@@ -5354,12 +6409,17 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Help Desk Operator</t>
+          <t>Structural Engineer</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>sJ5&lt;~'8v(t</t>
         </is>
       </c>
     </row>
@@ -5379,12 +6439,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Automation Specialist IV</t>
+          <t>Registered Nurse</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>wU5&amp;W&gt;kSrSV(</t>
         </is>
       </c>
     </row>
@@ -5404,12 +6469,17 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Staff Scientist</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>uP0@6fPgdG</t>
         </is>
       </c>
     </row>
@@ -5429,12 +6499,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Actuary</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>wA0,'3?oM5</t>
         </is>
       </c>
     </row>
@@ -5454,12 +6529,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Geological Engineer</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>eF5`PEx\?Tm</t>
         </is>
       </c>
     </row>
@@ -5479,12 +6559,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>Nuclear Power Engineer</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>rM5?1~|&lt;zd&lt;&lt;FH"Q</t>
         </is>
       </c>
     </row>
@@ -5504,12 +6589,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Human Resources Assistant II</t>
+          <t>Assistant Manager</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>pA0_A,`4_zs&amp;</t>
         </is>
       </c>
     </row>
@@ -5529,12 +6619,17 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Technical Writer</t>
+          <t>Health Coach II</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>oO0@gqF_0</t>
         </is>
       </c>
     </row>
@@ -5554,12 +6649,17 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Registered Nurse</t>
+          <t>Analog Circuit Design manager</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>vV4)kVY&amp;</t>
         </is>
       </c>
     </row>
@@ -5579,12 +6679,17 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Pharmacist</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>yF2`y=PkG</t>
         </is>
       </c>
     </row>
@@ -5604,12 +6709,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>rN4&gt;}MKfMD=Tv</t>
         </is>
       </c>
     </row>
@@ -5629,12 +6739,17 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Senior Quality Engineer</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>oV7*C02s0Ju</t>
         </is>
       </c>
     </row>
@@ -5654,12 +6769,17 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Systems Administrator III</t>
+          <t>Marketing Assistant</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>cZ1'eIpK,$</t>
         </is>
       </c>
     </row>
@@ -5679,12 +6799,17 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Assistant Manager</t>
+          <t>Payment Adjustment Coordinator</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>eV2@4OE%WD</t>
         </is>
       </c>
     </row>
@@ -5704,12 +6829,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Developer II</t>
+          <t>Help Desk Technician</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>cT1{yDbStFx</t>
         </is>
       </c>
     </row>
@@ -5729,12 +6859,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Librarian</t>
+          <t>Assistant Media Planner</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>mU9#NQy"</t>
         </is>
       </c>
     </row>
@@ -5754,12 +6889,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Senior Quality Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>tT4&gt;07E\</t>
         </is>
       </c>
     </row>
@@ -5779,12 +6919,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Programmer Analyst I</t>
+          <t>Recruiter</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>lV5+3AU'VCF</t>
         </is>
       </c>
     </row>
@@ -5804,12 +6949,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Nurse Practicioner</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>pZ0@wK*,=rW</t>
         </is>
       </c>
     </row>
@@ -5829,12 +6979,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Dental Hygienist</t>
+          <t>Associate Professor</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>qJ9@.z#(&lt;Magx2</t>
         </is>
       </c>
     </row>
@@ -5854,12 +7009,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Database Administrator III</t>
+          <t>Assistant Manager</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>lC0&gt;@&amp;O2?*Cl.</t>
         </is>
       </c>
     </row>
@@ -5879,12 +7039,17 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Junior Executive</t>
+          <t>Accounting Assistant III</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>mU9{8!11"{Wn4$p</t>
         </is>
       </c>
     </row>
@@ -5904,12 +7069,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Associate Professor</t>
+          <t>Director of Sales</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>hF5%sNfy$</t>
         </is>
       </c>
     </row>
@@ -5929,12 +7099,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Staff Accountant II</t>
+          <t>Structural Analysis Engineer</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>zA8(%Sdb2QyBj&lt;'</t>
         </is>
       </c>
     </row>
@@ -5954,12 +7129,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Administrative Officer</t>
+          <t>Paralegal</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>rH3&lt;*hyde"COvk</t>
         </is>
       </c>
     </row>
@@ -5979,12 +7159,17 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Account Representative IV</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>qI5|ik&gt;ap7?&gt;rK</t>
         </is>
       </c>
     </row>
@@ -6004,12 +7189,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Quality Control Specialist</t>
+          <t>Registered Nurse</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>iH9,L8et"x</t>
         </is>
       </c>
     </row>
@@ -6029,12 +7219,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>VP Accounting</t>
+          <t>Media Manager III</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>mD9,@_o|W*</t>
         </is>
       </c>
     </row>
@@ -6054,12 +7249,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>pP9&amp;.{Bq9R1dp9</t>
         </is>
       </c>
     </row>
@@ -6079,12 +7279,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Senior Editor</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>rY1)Q&amp;Xn</t>
         </is>
       </c>
     </row>
@@ -6104,12 +7309,17 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Account Coordinator</t>
+          <t>VP Accounting</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>hN9.wxGCi%L</t>
         </is>
       </c>
     </row>
@@ -6129,12 +7339,17 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Junior Executive</t>
+          <t>Statistician IV</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>iR3|6l%Y`KlWR</t>
         </is>
       </c>
     </row>
@@ -6154,12 +7369,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Administrative Assistant I</t>
+          <t>Assistant Professor</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>fO5%Fz0r}ayT</t>
         </is>
       </c>
     </row>
@@ -6179,12 +7399,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Software Consultant</t>
+          <t>Research Nurse</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>fV9,JLp8</t>
         </is>
       </c>
     </row>
@@ -6204,12 +7429,17 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Assistant Media Planner</t>
+          <t>Quality Control Specialist</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>eW5@5{#u,RS</t>
         </is>
       </c>
     </row>
@@ -6229,12 +7459,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Community Outreach Specialist</t>
+          <t>Senior Quality Engineer</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>wQ9,Y*{Mu</t>
         </is>
       </c>
     </row>
@@ -6254,12 +7489,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Software Engineer II</t>
+          <t>Desktop Support Technician</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>hO0@mOJ\!{h$j{ij</t>
         </is>
       </c>
     </row>
@@ -6279,12 +7519,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Help Desk Operator</t>
+          <t>Chemical Engineer</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>jL8$O=(+H2)</t>
         </is>
       </c>
     </row>
@@ -6304,12 +7549,17 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Senior Developer</t>
+          <t>Database Administrator I</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>yF9,X&lt;u""1</t>
         </is>
       </c>
     </row>
@@ -6329,12 +7579,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Database Administrator III</t>
+          <t>Office Assistant I</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>uY0)\@X55p</t>
         </is>
       </c>
     </row>
@@ -6354,12 +7609,17 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>eS5|hH7$K0/MzA2C</t>
         </is>
       </c>
     </row>
@@ -6379,12 +7639,17 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Help Desk Technician</t>
+          <t>Sales Associate</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>dO9&amp;8H4DOmi)</t>
         </is>
       </c>
     </row>
@@ -6404,12 +7669,17 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Community Outreach Specialist</t>
+          <t>Programmer Analyst I</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>fS8(.PGDmSQ#g</t>
         </is>
       </c>
     </row>
@@ -6429,12 +7699,17 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>rE6?V~x_e</t>
         </is>
       </c>
     </row>
@@ -6454,12 +7729,17 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Staff Accountant I</t>
+          <t>Account Coordinator</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>jS4.g2uH\&amp;K,</t>
         </is>
       </c>
     </row>
@@ -6479,12 +7759,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Web Designer II</t>
+          <t>Business Systems Development Analyst</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>yJ8$545,</t>
         </is>
       </c>
     </row>
@@ -6504,12 +7789,17 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>Systems Administrator II</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>mJ7,Cvb,4i6tN</t>
         </is>
       </c>
     </row>
@@ -6529,12 +7819,17 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Research Assistant IV</t>
+          <t>Budget/Accounting Analyst IV</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>kN9__bxH,E</t>
         </is>
       </c>
     </row>
@@ -6554,12 +7849,17 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Staff Scientist</t>
+          <t>Help Desk Technician</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>tQ3\5yetxSmser</t>
         </is>
       </c>
     </row>
@@ -6579,12 +7879,17 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Senior Cost Accountant</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>dD0!DD'&lt;Vs9MIM</t>
         </is>
       </c>
     </row>
@@ -6604,12 +7909,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Help Desk Technician</t>
+          <t>Community Outreach Specialist</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>dM6&amp;MCC9V1_</t>
         </is>
       </c>
     </row>
@@ -6629,12 +7939,17 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>oZ7"2rcnZh,</t>
         </is>
       </c>
     </row>
@@ -6654,12 +7969,17 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>Research Associate</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>aD4*$Jz,b!&amp;DK0%6</t>
         </is>
       </c>
     </row>
@@ -6679,12 +7999,17 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Programmer IV</t>
+          <t>Web Designer IV</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>gN8"ZB#W</t>
         </is>
       </c>
     </row>
@@ -6704,12 +8029,17 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Structural Analysis Engineer</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>dD2}3jo_xuN</t>
         </is>
       </c>
     </row>
@@ -6729,12 +8059,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Structural Engineer</t>
+          <t>Database Administrator III</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>gT7~_Pa+G?</t>
         </is>
       </c>
     </row>
@@ -6754,12 +8089,17 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Desktop Support Technician</t>
+          <t>Chief Design Engineer</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>fY1'WID9</t>
         </is>
       </c>
     </row>
@@ -6779,12 +8119,17 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Administrative Assistant III</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>hS4|JeWr%KfRk4</t>
         </is>
       </c>
     </row>
@@ -6804,12 +8149,17 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>eX9\hVfw!x_V)+fj</t>
         </is>
       </c>
     </row>
@@ -6829,12 +8179,17 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Developer II</t>
+          <t>Software Engineer II</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>pY4,jNY8</t>
         </is>
       </c>
     </row>
@@ -6854,12 +8209,17 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Desktop Support Technician</t>
+          <t>Budget/Accounting Analyst I</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>pE2_wFIy?9</t>
         </is>
       </c>
     </row>
@@ -6879,12 +8239,17 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Budget/Accounting Analyst III</t>
+          <t>Web Developer I</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>hS3'HkVW</t>
         </is>
       </c>
     </row>
@@ -6904,12 +8269,17 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Information Systems Manager</t>
+          <t>Account Coordinator</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>eV0'%+h/q~</t>
         </is>
       </c>
     </row>
@@ -6929,12 +8299,17 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Statistician II</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Turkmenistan</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>kV2.i'oQ9Wm'Fd&gt;p</t>
         </is>
       </c>
     </row>
@@ -6954,12 +8329,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Programmer Analyst III</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Kyrgyzstan</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>wW5*'UkCVNd%</t>
         </is>
       </c>
     </row>
@@ -6979,12 +8359,17 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Community Outreach Specialist</t>
+          <t>Computer Systems Analyst IV</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>cO1~\&amp;{R`6azJ#fV</t>
         </is>
       </c>
     </row>
@@ -7004,12 +8389,17 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Registered Nurse</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>yO7&amp;N{Cuq?+VRn2</t>
         </is>
       </c>
     </row>
@@ -7029,12 +8419,17 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Web Designer III</t>
+          <t>Information Systems Manager</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>wX6&amp;uA'D|S@J)k</t>
         </is>
       </c>
     </row>
@@ -7054,12 +8449,17 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
+          <t>Data Coordinator</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>rY2=3J{MP</t>
         </is>
       </c>
     </row>
@@ -7079,12 +8479,17 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Marketing Assistant</t>
+          <t>Account Coordinator</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>sC9'nxPEVbC6K3n|</t>
         </is>
       </c>
     </row>
@@ -7104,12 +8509,17 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Marketing Assistant</t>
+          <t>Nurse Practicioner</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>oC6#R`*r_</t>
         </is>
       </c>
     </row>
@@ -7129,12 +8539,17 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Data Coordinator</t>
+          <t>Clinical Specialist</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>pW0(*}y}Fga</t>
         </is>
       </c>
     </row>
@@ -7154,12 +8569,17 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Paralegal</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>wT1!z|&amp;1=V'</t>
         </is>
       </c>
     </row>
@@ -7179,12 +8599,17 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Help Desk Technician</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>nC3#7U&gt;=i)o"KfN</t>
         </is>
       </c>
     </row>
@@ -7204,12 +8629,17 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Compensation Analyst</t>
+          <t>Biostatistician IV</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>mO7~.}2pl{893S8</t>
         </is>
       </c>
     </row>
@@ -7229,12 +8659,17 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Structural Analysis Engineer</t>
+          <t>Senior Editor</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>qS7{jSlC&gt;&lt;w</t>
         </is>
       </c>
     </row>
@@ -7254,12 +8689,17 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Librarian</t>
+          <t>Speech Pathologist</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>eM1*#p2RI</t>
         </is>
       </c>
     </row>
@@ -7279,12 +8719,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Account Coordinator</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>cI5!P5jP&gt;gk7LBNF</t>
         </is>
       </c>
     </row>
@@ -7304,12 +8749,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Dental Hygienist</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>nJ5$QBP\1y</t>
         </is>
       </c>
     </row>
@@ -7329,12 +8779,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Environmental Tech</t>
+          <t>Compensation Analyst</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>wG1,E00A9+&gt;hp6({</t>
         </is>
       </c>
     </row>
@@ -7354,12 +8809,17 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Safety Technician II</t>
+          <t>Analog Circuit Design manager</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>sW5+&amp;$*+}G\hk</t>
         </is>
       </c>
     </row>
@@ -7379,12 +8839,17 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>dU8@"oRATuOt)XYN</t>
         </is>
       </c>
     </row>
@@ -7404,12 +8869,17 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Help Desk Operator</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>fP1,'}zQF8&amp;,0?0</t>
         </is>
       </c>
     </row>
@@ -7429,12 +8899,17 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Web Developer I</t>
+          <t>Internal Auditor</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>iN7'J75ab7Sr</t>
         </is>
       </c>
     </row>
@@ -7454,12 +8929,17 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>Compensation Analyst</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>cS8/,`EIJF%A</t>
         </is>
       </c>
     </row>
@@ -7479,12 +8959,17 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Geologist III</t>
+          <t>Design Engineer</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>eA0{c2nWk.h</t>
         </is>
       </c>
     </row>
@@ -7504,12 +8989,17 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Occupational Therapist</t>
+          <t>VP Product Management</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>oM2%r52m+o&lt;6_FhT</t>
         </is>
       </c>
     </row>
@@ -7529,12 +9019,17 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>Desktop Support Technician</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>rB2%Nw!,cxh0</t>
         </is>
       </c>
     </row>
@@ -7554,12 +9049,17 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Research Assistant III</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>jU4~XEtLr25Dy`</t>
         </is>
       </c>
     </row>
@@ -7579,12 +9079,17 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Administrative Officer</t>
+          <t>Recruiting Manager</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>rU5&gt;4z{iR984f</t>
         </is>
       </c>
     </row>
@@ -7604,12 +9109,17 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Quality Control Specialist</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>lY6*.)(ZhR</t>
         </is>
       </c>
     </row>
@@ -7629,12 +9139,17 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Database Administrator II</t>
+          <t>Administrative Officer</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>oD2|!ytPz=zYW</t>
         </is>
       </c>
     </row>
@@ -7654,12 +9169,17 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Social Worker</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Greenland</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>fO0=/yCOQO,7Gg</t>
         </is>
       </c>
     </row>
@@ -7679,12 +9199,17 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Assistant Media Planner</t>
+          <t>Cost Accountant</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>dJ5'gq2MO3I&gt;xBG9</t>
         </is>
       </c>
     </row>
@@ -7704,12 +9229,17 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Legal Assistant</t>
+          <t>Analog Circuit Design manager</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Palestinian Territory</t>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>tK7*OA&gt;o~</t>
         </is>
       </c>
     </row>
@@ -7729,12 +9259,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Systems Administrator III</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>yP9&amp;fXfVcU6d!+U</t>
         </is>
       </c>
     </row>
@@ -7754,12 +9289,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Software Test Engineer IV</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>zK8'3tmpz@y6O7M/</t>
         </is>
       </c>
     </row>
@@ -7779,12 +9319,17 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Office Assistant I</t>
+          <t>Occupational Therapist</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>zO3!GNCd</t>
         </is>
       </c>
     </row>
@@ -7804,12 +9349,17 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Quality Control Specialist</t>
+          <t>Librarian</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>vX7@@4mV+ySz</t>
         </is>
       </c>
     </row>
@@ -7829,12 +9379,17 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Data Coordinator</t>
+          <t>Tax Accountant</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Myanmar</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>yC6/~Fw$E}tw%Q&lt;</t>
         </is>
       </c>
     </row>
@@ -7854,12 +9409,17 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Analog Circuit Design manager</t>
+          <t>Research Associate</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>uM3~3#a4"h+YM</t>
         </is>
       </c>
     </row>
@@ -7879,12 +9439,17 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Software Consultant</t>
+          <t>Computer Systems Analyst II</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>oA5!QC6(c}\d2QA</t>
         </is>
       </c>
     </row>
@@ -7904,12 +9469,17 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>wS8`la*#s*RF34N</t>
         </is>
       </c>
     </row>
@@ -7929,12 +9499,17 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Office Assistant IV</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>uV1_xwDr</t>
         </is>
       </c>
     </row>
@@ -7954,12 +9529,17 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Programmer Analyst IV</t>
+          <t>Account Representative III</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>gI3*R@*#.C(</t>
         </is>
       </c>
     </row>
@@ -7979,12 +9559,17 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Human Resources Assistant I</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>mB8@H|c0Wc5EWx</t>
         </is>
       </c>
     </row>
@@ -8004,12 +9589,17 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>GIS Technical Architect</t>
+          <t>Software Engineer II</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Swaziland</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>nN2?d2d6vv`gR</t>
         </is>
       </c>
     </row>
@@ -8029,12 +9619,17 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Quality Engineer</t>
+          <t>Developer I</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>aJ5,nF7Y9</t>
         </is>
       </c>
     </row>
@@ -8054,12 +9649,17 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>VP Sales</t>
+          <t>Junior Executive</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>kY2(BlCIsEJbp</t>
         </is>
       </c>
     </row>
@@ -8079,12 +9679,17 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Mechanical Systems Engineer</t>
+          <t>Food Chemist</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>eO0&amp;''I1y&lt;yA.</t>
         </is>
       </c>
     </row>
@@ -8104,12 +9709,17 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Programmer Analyst I</t>
+          <t>Quality Control Specialist</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>zE0#V/H&amp;lRT6#_{</t>
         </is>
       </c>
     </row>
@@ -8129,12 +9739,17 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Accountant I</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>oP8#!$OVR)"</t>
         </is>
       </c>
     </row>
@@ -8154,12 +9769,17 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Business Systems Development Analyst</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>jA3/){&amp;+VB</t>
         </is>
       </c>
     </row>
@@ -8179,12 +9799,17 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Senior Editor</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>hY0|p&lt;#yL</t>
         </is>
       </c>
     </row>
@@ -8204,12 +9829,17 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Nurse Practicioner</t>
+          <t>Associate Professor</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>eX0\}(&amp;GgS</t>
         </is>
       </c>
     </row>
@@ -8229,12 +9859,17 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Paralegal</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>fU9%64|+yS</t>
         </is>
       </c>
     </row>
@@ -8254,12 +9889,17 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Payment Adjustment Coordinator</t>
+          <t>Structural Analysis Engineer</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
           <t>Poland</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>fC0\gFx%x=$U</t>
         </is>
       </c>
     </row>
@@ -8279,12 +9919,17 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Biostatistician II</t>
+          <t>Programmer Analyst I</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>uT8@LET$qzSD&amp;H/</t>
         </is>
       </c>
     </row>
@@ -8304,12 +9949,17 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>VP Sales</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>aJ7}k$Tu2O\</t>
         </is>
       </c>
     </row>
@@ -8329,12 +9979,17 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>GIS Technical Architect</t>
+          <t>Systems Administrator II</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>kR6`w{fuqP</t>
         </is>
       </c>
     </row>
@@ -8354,12 +10009,17 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Technical Writer</t>
+          <t>Office Assistant IV</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>vY3|\2bToF</t>
         </is>
       </c>
     </row>
@@ -8379,12 +10039,17 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>mH7@lhZE</t>
         </is>
       </c>
     </row>
@@ -8404,12 +10069,17 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Account Coordinator</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>nY4~b4!idkyS6*6b</t>
         </is>
       </c>
     </row>
@@ -8429,12 +10099,17 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Accountant IV</t>
+          <t>Safety Technician II</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>aL8)=`G~2v7JIMU'</t>
         </is>
       </c>
     </row>
@@ -8454,12 +10129,17 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Software Test Engineer II</t>
+          <t>Human Resources Assistant II</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>lX6'xPHZ{</t>
         </is>
       </c>
     </row>
@@ -8479,12 +10159,17 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Physical Therapy Assistant</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>yQ3_wdRG%43</t>
         </is>
       </c>
     </row>
@@ -8504,12 +10189,17 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>kP9/UOc#=7@k3TK</t>
         </is>
       </c>
     </row>
@@ -8529,12 +10219,17 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Research Assistant II</t>
+          <t>Physical Therapy Assistant</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>oM5=+X=x4N3Ox%</t>
         </is>
       </c>
     </row>
@@ -8554,12 +10249,17 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Media Manager I</t>
+          <t>Help Desk Operator</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>tO5\7|R,30|S</t>
         </is>
       </c>
     </row>
@@ -8579,12 +10279,17 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Analyst Programmer</t>
+          <t>Budget/Accounting Analyst II</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>hV3?Q~|fsHj{w0`</t>
         </is>
       </c>
     </row>
@@ -8604,12 +10309,17 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Programmer Analyst III</t>
+          <t>Clinical Specialist</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>qD8#x!t0zyD*</t>
         </is>
       </c>
     </row>
@@ -8629,12 +10339,17 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
+          <t>Physical Therapy Assistant</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>bJ4}&gt;&gt;ju=</t>
         </is>
       </c>
     </row>
@@ -8654,12 +10369,17 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Director of Sales</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>jJ3"*Kk#1/T79!7l</t>
         </is>
       </c>
     </row>
@@ -8679,12 +10399,17 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Structural Analysis Engineer</t>
+          <t>Geologist IV</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>vN2#wuCZ'ox6</t>
         </is>
       </c>
     </row>
@@ -8704,12 +10429,17 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Assistant Media Planner</t>
+          <t>Tax Accountant</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>uU6+Y|!m</t>
         </is>
       </c>
     </row>
@@ -8729,12 +10459,17 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Web Developer I</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>rX2`elEraz_!</t>
         </is>
       </c>
     </row>
@@ -8754,12 +10489,17 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Product Engineer</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>eY9&amp;Nl=4gwJYfa)</t>
         </is>
       </c>
     </row>
@@ -8779,12 +10519,17 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Geologist IV</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>eR6%+AvQqt</t>
         </is>
       </c>
     </row>
@@ -8804,12 +10549,17 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Web Developer III</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>kC7&amp;Kl9&gt;(05l/</t>
         </is>
       </c>
     </row>
@@ -8829,12 +10579,17 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>dF1}/3y7</t>
         </is>
       </c>
     </row>
@@ -8854,12 +10609,17 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Programmer Analyst I</t>
+          <t>Desktop Support Technician</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>wK8+2NUK\yESlB</t>
         </is>
       </c>
     </row>
@@ -8879,12 +10639,17 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
           <t>Russia</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>iQ8{&gt;$*|'l345PU"</t>
         </is>
       </c>
     </row>
@@ -8904,12 +10669,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>VP Quality Control</t>
+          <t>Technical Writer</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>qK6/5Qm9?t`U</t>
         </is>
       </c>
     </row>
@@ -8929,12 +10699,17 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Help Desk Technician</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>jO2\1pRA?bJRHcH</t>
         </is>
       </c>
     </row>
@@ -8954,12 +10729,17 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Cost Accountant</t>
+          <t>Health Coach I</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>lZ9*3FsQ4M.$f~</t>
         </is>
       </c>
     </row>
@@ -8979,12 +10759,17 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Dental Hygienist</t>
+          <t>Help Desk Operator</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
           <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>hL8*TRV"fy</t>
         </is>
       </c>
     </row>
@@ -9004,12 +10789,17 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Developer II</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>qK0{K%8B</t>
         </is>
       </c>
     </row>
@@ -9029,12 +10819,17 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Programmer III</t>
+          <t>Administrative Officer</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>xY5,DK_&amp;QUNNeS~</t>
         </is>
       </c>
     </row>
@@ -9054,12 +10849,17 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Computer Systems Analyst I</t>
+          <t>Compensation Analyst</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
           <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>gC5&lt;wB1&lt;&amp;RFn)N</t>
         </is>
       </c>
     </row>
@@ -9079,12 +10879,17 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Internal Auditor</t>
+          <t>Speech Pathologist</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>dA7%3yVj6</t>
         </is>
       </c>
     </row>
@@ -9104,12 +10909,17 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Recruiting Manager</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>cF9&gt;jECix1)y</t>
         </is>
       </c>
     </row>
@@ -9129,12 +10939,17 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Associate Professor</t>
+          <t>Health Coach I</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>yR9}dZW1Kz&amp;xn\}</t>
         </is>
       </c>
     </row>
@@ -9154,12 +10969,17 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>eY1$r&amp;k=UI_</t>
         </is>
       </c>
     </row>
@@ -9179,12 +10999,17 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Web Designer IV</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>zE3"NgtaG&gt;.n</t>
         </is>
       </c>
     </row>
@@ -9204,12 +11029,17 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Computer Systems Analyst I</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>gS8&gt;yPwD+</t>
         </is>
       </c>
     </row>
@@ -9229,12 +11059,17 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Software Test Engineer II</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>qE4(KaZbrD</t>
         </is>
       </c>
     </row>
@@ -9254,12 +11089,17 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Computer Systems Analyst I</t>
+          <t>Recruiter</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>eP1&lt;j+lu00{w</t>
         </is>
       </c>
     </row>
@@ -9279,12 +11119,17 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
+          <t>Design Engineer</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>kK5/}PXB</t>
         </is>
       </c>
     </row>
@@ -9304,12 +11149,17 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Software Consultant</t>
+          <t>Engineer II</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>lY1_f_|yNgs</t>
         </is>
       </c>
     </row>
@@ -9329,12 +11179,17 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Statistician III</t>
+          <t>General Manager</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Falkland Islands</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>vP0_UKO*v/.,#/|</t>
         </is>
       </c>
     </row>
@@ -9354,12 +11209,17 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Nuclear Power Engineer</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>sL3'*97Z</t>
         </is>
       </c>
     </row>
@@ -9379,12 +11239,17 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Mechanical Systems Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>kW1@Wm$|s@</t>
         </is>
       </c>
     </row>
@@ -9404,12 +11269,17 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Developer IV</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>cD6$NVIi</t>
         </is>
       </c>
     </row>
@@ -9429,12 +11299,17 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Analog Circuit Design manager</t>
+          <t>Statistician III</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>mU8+Nb|09VH</t>
         </is>
       </c>
     </row>
@@ -9454,12 +11329,17 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Dental Hygienist</t>
+          <t>GIS Technical Architect</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>vJ7\L"yH$</t>
         </is>
       </c>
     </row>
@@ -9479,12 +11359,17 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Engineer I</t>
+          <t>Assistant Media Planner</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>kX0}G?!h{y</t>
         </is>
       </c>
     </row>
@@ -9504,12 +11389,17 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Environmental Specialist</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>yX6(QC|ZGpX9DWo</t>
         </is>
       </c>
     </row>
@@ -9529,12 +11419,17 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Registered Nurse</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>xP0)MemjB(d</t>
         </is>
       </c>
     </row>
@@ -9554,12 +11449,17 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Media Manager III</t>
+          <t>Design Engineer</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>fX5%~e9v\sA</t>
         </is>
       </c>
     </row>
@@ -9579,12 +11479,17 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Internal Auditor</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>gW3_B/38</t>
         </is>
       </c>
     </row>
@@ -9604,12 +11509,17 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Librarian</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>qE1@L$xhlDSVHu1</t>
         </is>
       </c>
     </row>
@@ -9629,12 +11539,17 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>VP Marketing</t>
+          <t>Accounting Assistant I</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>dC9!5_qil</t>
         </is>
       </c>
     </row>
@@ -9654,12 +11569,17 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Administrative Assistant II</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>dV9\l4#uysFD</t>
         </is>
       </c>
     </row>
@@ -9679,12 +11599,17 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Database Administrator I</t>
+          <t>Registered Nurse</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>mD3,,t)d7</t>
         </is>
       </c>
     </row>
@@ -9704,12 +11629,17 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Automation Specialist II</t>
+          <t>Web Developer I</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>cV3?5aO9cP\=6/z</t>
         </is>
       </c>
     </row>
@@ -9729,12 +11659,17 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Actuary</t>
+          <t>Clinical Specialist</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>aN3&gt;DY.I0(|v</t>
         </is>
       </c>
     </row>
@@ -9754,12 +11689,17 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Tax Accountant</t>
+          <t>Software Consultant</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>wO9!{W_z</t>
         </is>
       </c>
     </row>
@@ -9779,12 +11719,17 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Systems Administrator I</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>nN0&lt;gi5iAK4_`</t>
         </is>
       </c>
     </row>
@@ -9804,12 +11749,17 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Tax Accountant</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>fA5&amp;Gb.gi~t</t>
         </is>
       </c>
     </row>
@@ -9829,12 +11779,17 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
+          <t>Clinical Specialist</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>lC4~WdEa5r*1q</t>
         </is>
       </c>
     </row>
@@ -9854,12 +11809,17 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Clinical Specialist</t>
+          <t>Mechanical Systems Engineer</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>eT6{DL+*cni(h9Ug</t>
         </is>
       </c>
     </row>
@@ -9879,12 +11839,17 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Librarian</t>
+          <t>Compensation Analyst</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>kF8@l{q&gt;Hf?7&lt;gs</t>
         </is>
       </c>
     </row>
@@ -9904,12 +11869,17 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Research Assistant IV</t>
+          <t>Actuary</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>tL9*WPWNgswO5"Fn</t>
         </is>
       </c>
     </row>
@@ -9929,12 +11899,17 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Structural Engineer</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>yW1)%xYUoI</t>
         </is>
       </c>
     </row>
@@ -9954,12 +11929,17 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Biostatistician III</t>
+          <t>Internal Auditor</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>tI0.m8,6m</t>
         </is>
       </c>
     </row>
@@ -9979,12 +11959,17 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Junior Executive</t>
+          <t>Biostatistician I</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>sA2&gt;aq?}H</t>
         </is>
       </c>
     </row>
@@ -10004,12 +11989,17 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>VP Quality Control</t>
+          <t>Food Chemist</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>cB6*\U1qIs%</t>
         </is>
       </c>
     </row>
@@ -10029,12 +12019,17 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Marketing Assistant</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>iB0`E=jh|O&lt;</t>
         </is>
       </c>
     </row>
@@ -10054,12 +12049,17 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Speech Pathologist</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>hI5)h4Y/</t>
         </is>
       </c>
     </row>
@@ -10079,12 +12079,17 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Human Resources Manager</t>
+          <t>GIS Technical Architect</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Faroe Islands</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>zK7@fVQw</t>
         </is>
       </c>
     </row>
@@ -10104,12 +12109,17 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Legal Assistant</t>
+          <t>Compensation Analyst</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>hM9~2CTZIZ&amp;9h,</t>
         </is>
       </c>
     </row>
@@ -10129,12 +12139,17 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Senior Quality Engineer</t>
+          <t>Accounting Assistant IV</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>oF1&amp;*zX2RMO</t>
         </is>
       </c>
     </row>
@@ -10154,12 +12169,17 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Payment Adjustment Coordinator</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>xF1&amp;yTnKB6#c</t>
         </is>
       </c>
     </row>
@@ -10179,12 +12199,17 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Mechanical Systems Engineer</t>
+          <t>Human Resources Assistant IV</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>dI5(4A(&lt;xu</t>
         </is>
       </c>
     </row>
@@ -10204,12 +12229,17 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Computer Systems Analyst IV</t>
+          <t>Junior Executive</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>xV9{UAE1</t>
         </is>
       </c>
     </row>
@@ -10229,12 +12259,17 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Data Coordinator</t>
+          <t>Administrative Officer</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>hN6/vM&lt;kG*,/%q</t>
         </is>
       </c>
     </row>
@@ -10254,12 +12289,17 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Executive Secretary</t>
+          <t>General Manager</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>xO1&amp;*64&amp;&gt;M</t>
         </is>
       </c>
     </row>
@@ -10279,12 +12319,17 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Nuclear Power Engineer</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>tM1(XT`TXFF</t>
         </is>
       </c>
     </row>
@@ -10304,12 +12349,17 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Automation Specialist IV</t>
+          <t>Occupational Therapist</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>tX8*6fWo</t>
         </is>
       </c>
     </row>
@@ -10329,12 +12379,17 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Help Desk Technician</t>
+          <t>Librarian</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>aK4?bRR"=qU4/Vc</t>
         </is>
       </c>
     </row>
@@ -10354,12 +12409,17 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Help Desk Operator</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>uJ7|yX9T</t>
         </is>
       </c>
     </row>
@@ -10379,12 +12439,17 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Actuary</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>gU9`S9B6S#SVK%</t>
         </is>
       </c>
     </row>
@@ -10404,12 +12469,17 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Health Coach II</t>
+          <t>Software Engineer II</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>vB6(VSm1@X</t>
         </is>
       </c>
     </row>
@@ -10429,12 +12499,17 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>cB2`{M1f~D</t>
         </is>
       </c>
     </row>
@@ -10454,12 +12529,17 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>zW1'#'B4x,6&gt;5e8#</t>
         </is>
       </c>
     </row>
@@ -10479,12 +12559,17 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Accounting Assistant I</t>
+          <t>VP Sales</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>vD7'SdvNg</t>
         </is>
       </c>
     </row>
@@ -10504,12 +12589,17 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Database Administrator II</t>
+          <t>Staff Scientist</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mongolia</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>kP5.ack(bM"4&amp;J&gt;7</t>
         </is>
       </c>
     </row>
@@ -10529,12 +12619,17 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Internal Auditor</t>
+          <t>Budget/Accounting Analyst I</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>sV5\tX}&lt;</t>
         </is>
       </c>
     </row>
@@ -10554,12 +12649,17 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Research Associate</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>nI2%'@!3ak</t>
         </is>
       </c>
     </row>
@@ -10579,12 +12679,17 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Geological Engineer</t>
+          <t>Statistician II</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>rH6~'bg4MsS</t>
         </is>
       </c>
     </row>
@@ -10604,12 +12709,17 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Food Chemist</t>
+          <t>Physical Therapy Assistant</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>dI1%V`&gt;7%7n</t>
         </is>
       </c>
     </row>
@@ -10629,12 +12739,17 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Help Desk Technician</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>nI6+ebXm</t>
         </is>
       </c>
     </row>
@@ -10654,12 +12769,17 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Actuary</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>vD8&amp;lWb!%hUkLsSN</t>
         </is>
       </c>
     </row>
@@ -10679,12 +12799,17 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Marketing Assistant</t>
+          <t>Analog Circuit Design manager</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>xF1@4SV&amp;t9%D4,P</t>
         </is>
       </c>
     </row>
@@ -10704,12 +12829,17 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Recruiting Manager</t>
+          <t>Senior Sales Associate</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>vF9!N0&lt;HaeS</t>
         </is>
       </c>
     </row>
@@ -10729,12 +12859,17 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Cost Accountant</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>eV3\1&lt;@&lt;Pg</t>
         </is>
       </c>
     </row>
@@ -10754,12 +12889,17 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Programmer Analyst I</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>rL1*h+PcIF`a&lt;</t>
         </is>
       </c>
     </row>
@@ -10779,12 +12919,17 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Health Coach III</t>
+          <t>Analyst Programmer</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>rN9\lB=ke,{p4ZE*</t>
         </is>
       </c>
     </row>
@@ -10804,12 +12949,17 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Biostatistician II</t>
+          <t>Research Nurse</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>qH8&lt;5ehzJ?Y,\C</t>
         </is>
       </c>
     </row>
@@ -10829,12 +12979,17 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Analog Circuit Design manager</t>
+          <t>Senior Financial Analyst</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>aA0~A{&lt;h0'S7</t>
         </is>
       </c>
     </row>
@@ -10854,12 +13009,17 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Staff Accountant II</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>uV8&lt;L&amp;.SKk9)u</t>
         </is>
       </c>
     </row>
@@ -10879,12 +13039,17 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>VP Product Management</t>
+          <t>Director of Sales</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>eN0!KRk"&lt;</t>
         </is>
       </c>
     </row>
@@ -10904,12 +13069,17 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>zU8#9gTH*</t>
         </is>
       </c>
     </row>
@@ -10929,12 +13099,17 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Budget/Accounting Analyst II</t>
+          <t>Senior Developer</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>wW9"9*/jgO</t>
         </is>
       </c>
     </row>
@@ -10954,12 +13129,17 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Structural Analysis Engineer</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>bX1)\(.2|5</t>
         </is>
       </c>
     </row>
@@ -10979,12 +13159,17 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>VP Quality Control</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>aK7~fuad'</t>
         </is>
       </c>
     </row>
@@ -11004,12 +13189,17 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Data Coordinator</t>
+          <t>Junior Executive</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>pE9,sveWVO7R)nyR</t>
         </is>
       </c>
     </row>
@@ -11029,12 +13219,17 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Automation Specialist IV</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>sX7&lt;5}M+XJ`s}</t>
         </is>
       </c>
     </row>
@@ -11054,12 +13249,17 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Recruiting Manager</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>uZ9|Jv&amp;&amp;(H</t>
         </is>
       </c>
     </row>
@@ -11079,12 +13279,17 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Internal Auditor</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>hW9#Ju&gt;IK73J</t>
         </is>
       </c>
     </row>
@@ -11104,12 +13309,17 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Senior Financial Analyst</t>
+          <t>Statistician III</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>lB6$RP?1`</t>
         </is>
       </c>
     </row>
@@ -11129,12 +13339,17 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Automation Specialist II</t>
+          <t>Geologist IV</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>hL2,&amp;o\I&lt;VZcZv</t>
         </is>
       </c>
     </row>
@@ -11154,12 +13369,17 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>aN2=oA.2Gvh(</t>
         </is>
       </c>
     </row>
@@ -11179,12 +13399,17 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Accounting Assistant I</t>
+          <t>Senior Quality Engineer</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>lS9/$iwWM+</t>
         </is>
       </c>
     </row>
@@ -11204,12 +13429,17 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>VP Product Management</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>tF2{Y+bWq7yo}9#</t>
         </is>
       </c>
     </row>
@@ -11229,12 +13459,17 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>VP Sales</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>kM6@3~35</t>
         </is>
       </c>
     </row>
@@ -11254,12 +13489,17 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Speech Pathologist</t>
+          <t>Legal Assistant</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>gA6=&amp;V6o"qJL`</t>
         </is>
       </c>
     </row>
@@ -11279,12 +13519,17 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Account Coordinator</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>sM9'EaNX?hY</t>
         </is>
       </c>
     </row>
@@ -11304,12 +13549,17 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Environmental Tech</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>tH6&amp;VoEs`o</t>
         </is>
       </c>
     </row>
@@ -11329,12 +13579,17 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Software Engineer I</t>
+          <t>VP Product Management</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>zW7'}pht</t>
         </is>
       </c>
     </row>
@@ -11354,12 +13609,17 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Senior Financial Analyst</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
           <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>xE5.hxqX*?qx.2zj</t>
         </is>
       </c>
     </row>
@@ -11379,12 +13639,17 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>VP Quality Control</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>tV9&gt;N?BTXA'f)kI</t>
         </is>
       </c>
     </row>
@@ -11404,12 +13669,17 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>xC1~6&amp;eo2&gt;V</t>
         </is>
       </c>
     </row>
@@ -11429,12 +13699,17 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Senior Editor</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>eK2#fJ&lt;&lt;SnQS</t>
         </is>
       </c>
     </row>
@@ -11454,12 +13729,17 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Staff Scientist</t>
+          <t>Biostatistician III</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>bQ5%!9v\I7fRc!</t>
         </is>
       </c>
     </row>
@@ -11479,12 +13759,17 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Quality Control Specialist</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>lM7{~SS`</t>
         </is>
       </c>
     </row>
@@ -11504,12 +13789,17 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Data Coordinator</t>
+          <t>Database Administrator III</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>fA3)`&gt;{!</t>
         </is>
       </c>
     </row>
@@ -11529,12 +13819,17 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Geologist IV</t>
+          <t>Pharmacist</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>qQ5,Gt`Ztdm=!\+</t>
         </is>
       </c>
     </row>
@@ -11554,12 +13849,17 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Marketing Assistant</t>
+          <t>VP Accounting</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>nW8&lt;pBt=MMnQ,CI?</t>
         </is>
       </c>
     </row>
@@ -11579,12 +13879,17 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Cost Accountant</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>cJ4~R#)aEQ&gt;2</t>
         </is>
       </c>
     </row>
@@ -11604,12 +13909,17 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Human Resources Manager</t>
+          <t>Senior Developer</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>aK6&gt;)$isuK</t>
         </is>
       </c>
     </row>
@@ -11629,12 +13939,17 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>bR2"D?8n</t>
         </is>
       </c>
     </row>
@@ -11654,12 +13969,17 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Recruiting Manager</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>wW9??G6k</t>
         </is>
       </c>
     </row>
@@ -11679,12 +13999,17 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>Senior Quality Engineer</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>rA7,/OU=(A3</t>
         </is>
       </c>
     </row>
@@ -11704,12 +14029,17 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>VP Sales</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>wM3#f\Qq(*&lt;YS@</t>
         </is>
       </c>
     </row>
@@ -11729,12 +14059,17 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Assistant Professor</t>
+          <t>Analog Circuit Design manager</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>sN9||J/_V</t>
         </is>
       </c>
     </row>
@@ -11754,12 +14089,17 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Accounting Assistant III</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>wM9~O6BeZ</t>
         </is>
       </c>
     </row>
@@ -11779,12 +14119,17 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Senior Developer</t>
+          <t>Developer IV</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>aT9./NSW%QlM</t>
         </is>
       </c>
     </row>
@@ -11804,12 +14149,17 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Health Coach IV</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
           <t>China</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>mE1)ujL(,m8"AR</t>
         </is>
       </c>
     </row>
@@ -11829,12 +14179,17 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Analog Circuit Design manager</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>jP2'&gt;2aO`u_HP`,</t>
         </is>
       </c>
     </row>
@@ -11854,12 +14209,17 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Registered Nurse</t>
+          <t>Programmer Analyst II</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>iX1|nZ$r&lt;?Y</t>
         </is>
       </c>
     </row>
@@ -11879,12 +14239,17 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Speech Pathologist</t>
+          <t>Senior Cost Accountant</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>vS7$wYDYyvShV`</t>
         </is>
       </c>
     </row>
@@ -11904,12 +14269,17 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Structural Analysis Engineer</t>
+          <t>Accountant III</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>pK9&amp;$K9H</t>
         </is>
       </c>
     </row>
@@ -11929,12 +14299,17 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>VP Accounting</t>
+          <t>Budget/Accounting Analyst III</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>oM7&gt;3h_vQ~r</t>
         </is>
       </c>
     </row>
@@ -11954,12 +14329,17 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Account Coordinator</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>cX8@$QE&lt;q</t>
         </is>
       </c>
     </row>
@@ -11979,12 +14359,17 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>gO1{/5Otm</t>
         </is>
       </c>
     </row>
@@ -12004,12 +14389,17 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Mechanical Systems Engineer</t>
+          <t>Software Test Engineer II</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>fK6,`\a"</t>
         </is>
       </c>
     </row>
@@ -12029,12 +14419,17 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Payment Adjustment Coordinator</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>kS9&amp;9{TMH</t>
         </is>
       </c>
     </row>
@@ -12054,12 +14449,17 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Accounting Assistant I</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>cP6%5zW%</t>
         </is>
       </c>
     </row>
@@ -12079,12 +14479,17 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Nuclear Power Engineer</t>
+          <t>Senior Financial Analyst</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>fA6~SvS'iq</t>
         </is>
       </c>
     </row>
@@ -12104,12 +14509,17 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Engineer III</t>
+          <t>Social Worker</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>kM3}aB`2E(/QpCo7</t>
         </is>
       </c>
     </row>
@@ -12129,12 +14539,17 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Staff Scientist</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>gS1_XtP*osBl&gt;}</t>
         </is>
       </c>
     </row>
@@ -12154,12 +14569,17 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Research Nurse</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>qD4~#@bQHa657*</t>
         </is>
       </c>
     </row>
@@ -12179,12 +14599,17 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>sY2)N$Sz+U</t>
         </is>
       </c>
     </row>
@@ -12204,12 +14629,17 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>cJ4'~9&gt;c</t>
         </is>
       </c>
     </row>
@@ -12229,12 +14659,17 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Product Engineer</t>
+          <t>Programmer Analyst II</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>gC0{o,6zsOBF?/#3</t>
         </is>
       </c>
     </row>
@@ -12254,12 +14689,17 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Senior Sales Associate</t>
+          <t>Physical Therapy Assistant</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>uP8%,%y9(JQog'</t>
         </is>
       </c>
     </row>
@@ -12279,12 +14719,17 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Internal Auditor</t>
+          <t>Executive Secretary</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>tP5/aM{c+*\w</t>
         </is>
       </c>
     </row>
@@ -12304,12 +14749,17 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Speech Pathologist</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>wO0@o*VB=S`52$"</t>
         </is>
       </c>
     </row>
@@ -12329,12 +14779,17 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Safety Technician III</t>
+          <t>Systems Administrator II</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>dL0(bhq(`|siin5r</t>
         </is>
       </c>
     </row>
@@ -12354,12 +14809,17 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Health Coach III</t>
+          <t>Recruiting Manager</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>zN4$GCifd|YCF4,R</t>
         </is>
       </c>
     </row>
@@ -12379,12 +14839,17 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Developer IV</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>cV7=tBW5KgDr</t>
         </is>
       </c>
     </row>
@@ -12404,12 +14869,17 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Senior Quality Engineer</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>mZ6{CEqM</t>
         </is>
       </c>
     </row>
@@ -12429,12 +14899,17 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Assistant Manager</t>
+          <t>Research Associate</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>mW6%l\J7yS</t>
         </is>
       </c>
     </row>
@@ -12454,12 +14929,17 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Database Administrator II</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>hZ2"mwrkL0w</t>
         </is>
       </c>
     </row>
@@ -12479,12 +14959,17 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Senior Sales Associate</t>
+          <t>Chemical Engineer</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>qM0{4fXIwO</t>
         </is>
       </c>
     </row>
@@ -12504,12 +14989,17 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Information Systems Manager</t>
+          <t>Tax Accountant</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
           <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>dO9&lt;wEl+HR&amp;</t>
         </is>
       </c>
     </row>
@@ -12529,12 +15019,17 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Tax Accountant</t>
+          <t>Assistant Manager</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Palestinian Territory</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>fC2?DF/Sr</t>
         </is>
       </c>
     </row>
@@ -12554,12 +15049,17 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Senior Editor</t>
+          <t>Quality Engineer</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>gK2%k?G/Ll2pKu}</t>
         </is>
       </c>
     </row>
@@ -12579,12 +15079,17 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Actuary</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>eM1}Suc%R{</t>
         </is>
       </c>
     </row>
